--- a/excel/matf_average_neighbor_degree.xlsx
+++ b/excel/matf_average_neighbor_degree.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,226 +548,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Milan Bankovic</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sana Stojanovic Djurdjevic</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Stasa Vujicic Stankovic</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Stefan Miskovic</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Danijela Simic</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Jelena Hadzi Puric</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Ivan Cukic</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ognjen Kocic</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mirjana Maljkovic</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Aleksandra Kocic</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ana Spasic</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Biljana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Andjelka Zecevic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Aleksandar Veljkovic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Vladimir Kuzmanovic</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Marjana Solajic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Anja Bukurov</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Nemanja Micovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Nikola Milev</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Marinela Parovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Milica Selakovic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nikola Simic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
